--- a/Y_样本_example.xlsx
+++ b/Y_样本_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8640" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="weapon" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>武器配置</t>
   </si>
@@ -334,16 +334,13 @@
     <t>act_id</t>
   </si>
   <si>
-    <t>actId</t>
-  </si>
-  <si>
     <t>开始时间</t>
   </si>
   <si>
     <t>open</t>
   </si>
   <si>
-    <t>18:00:00</t>
+    <t>"18:00:00"</t>
   </si>
   <si>
     <t>结束时间</t>
@@ -352,7 +349,7 @@
     <t>close</t>
   </si>
   <si>
-    <t>18:30:00</t>
+    <t>"19:00:00"</t>
   </si>
   <si>
     <t>奖励</t>
@@ -382,10 +379,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -414,10 +411,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,38 +426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,9 +441,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,45 +534,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -543,9 +541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,19 +581,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,151 +737,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,6 +774,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,17 +811,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,21 +832,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -859,13 +852,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,142 +871,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,7 +1027,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1086,6 +1085,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1094,7 +1098,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1341,7 +1345,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1350,11 +1353,11 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="23.625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
@@ -1864,7 +1867,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="6" width="27.25" customWidth="1"/>
@@ -2057,11 +2060,11 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="4" width="9" style="4"/>
     <col min="5" max="5" width="76.625" customWidth="1"/>
@@ -2100,7 +2103,7 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>90</v>
       </c>
     </row>
@@ -2115,61 +2118,61 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5">
+        <v>104</v>
+      </c>
+      <c r="E5" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2191,7 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="27.75" style="1" customWidth="1"/>
@@ -2203,7 +2206,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:3">
@@ -2239,7 +2242,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:5">
@@ -2298,7 +2301,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:5">
@@ -2330,7 +2333,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="1:3">
